--- a/team_specific_matrix/JWU (Providence)_B.xlsx
+++ b/team_specific_matrix/JWU (Providence)_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.03125</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.15625</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.53125</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,16 +1401,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,22 +1513,22 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1641791044776119</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>0.1940298507462687</v>
       </c>
     </row>
   </sheetData>
